--- a/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-21.xlsx
+++ b/022_politik_landschaft_von_schaffhausen/static/Data/Daten_2024-07-21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/377d0af42f0f7bd1/Programming/projects/022_politik_landschaft_von_schaffhausen/static/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Programming\projects\022_politik_landschaft_von_schaffhausen\static\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1125" documentId="8_{89F780C4-4E6B-42EC-8C0D-7E5C7EBF99EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D55FC9-64EE-4BDD-A6F8-8A1D54511633}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA25DF-D149-4632-9E25-009E1A3ACCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" firstSheet="24" activeTab="26" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" firstSheet="24" activeTab="26" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
@@ -1424,11 +1424,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2585,41 +2584,41 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Vorlage</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
     </row>
   </sheetData>
@@ -2673,25 +2672,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Siblingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>Siblingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2840,25 +2839,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Neunkirch</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>Neunkirch</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -3026,25 +3025,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Thayngen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>Thayngen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -3182,25 +3181,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Thayngen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>Thayngen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>333</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>336</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>337</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>339</v>
       </c>
@@ -3538,25 +3537,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Stein am Rhein</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>Stein am Rhein</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>343</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>346</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -3724,25 +3723,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Stein am Rhein</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>Stein am Rhein</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3801,18 +3800,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>171</v>
       </c>
       <c r="G8" s="2"/>
@@ -3820,18 +3818,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>357</v>
       </c>
       <c r="G9" s="2"/>
@@ -3839,18 +3836,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>359</v>
       </c>
       <c r="G10" s="2"/>
@@ -3858,18 +3854,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>107</v>
       </c>
       <c r="G11" s="2"/>
@@ -3877,198 +3872,187 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>363</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>364</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>107</v>
       </c>
       <c r="H12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>207</v>
       </c>
       <c r="H13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>366</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>207</v>
       </c>
       <c r="H14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>371</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>362</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>207</v>
       </c>
       <c r="H16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>207</v>
       </c>
       <c r="H17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>207</v>
       </c>
       <c r="H18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>373</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>207</v>
       </c>
       <c r="H19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>207</v>
       </c>
       <c r="H20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>207</v>
       </c>
       <c r="H21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>376</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>207</v>
       </c>
       <c r="H22" t="s">
@@ -4094,25 +4078,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Hemishofen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4104,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4128,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4136,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4145,7 +4129,7 @@
         <v>Hemishofen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4171,12 +4155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4196,25 +4175,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Ramsen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4201,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4238,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4246,7 +4225,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4272,12 +4251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4299,25 +4273,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Buch</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4325,7 +4299,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4341,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4350,7 +4324,7 @@
         <v>Buch</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4376,12 +4350,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4403,25 +4372,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Dörflingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4429,7 +4398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4437,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4445,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4454,7 +4423,7 @@
         <v>Dörflingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4480,12 +4449,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4507,25 +4471,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Beringen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4533,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4549,7 +4513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4558,7 +4522,7 @@
         <v>Beringen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4604,7 +4568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4621,7 +4585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4638,7 +4602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4655,7 +4619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4692,25 +4656,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Lohn</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4682,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4726,7 +4690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4743,7 +4707,7 @@
         <v>Lohn</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4769,12 +4733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4796,31 +4755,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Stetten</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4836,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4845,7 +4804,7 @@
         <v>Stetten</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4871,12 +4830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4895,31 +4849,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Büttenhardt</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4927,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4935,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4944,7 +4898,7 @@
         <v>Büttenhardt</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4970,12 +4924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -4994,31 +4943,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Merishausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5026,7 +4975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5043,7 +4992,7 @@
         <v>Merishausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5069,12 +5018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5093,31 +5037,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Bargen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5125,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5133,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5142,7 +5086,7 @@
         <v>Bargen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5168,12 +5112,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5192,31 +5131,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Löhningen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5224,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5232,7 +5171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5241,7 +5180,7 @@
         <v>Löhningen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5267,12 +5206,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5291,31 +5225,31 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Gächlingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5323,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5331,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5340,7 +5274,7 @@
         <v>Gächlingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5366,12 +5300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5390,25 +5319,25 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Oberhallau</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5345,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5424,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5432,7 +5361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5441,7 +5370,7 @@
         <v>Oberhallau</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5467,12 +5396,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
     </row>
   </sheetData>
@@ -5494,25 +5418,25 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Hallau</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5444,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5528,7 +5452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5536,7 +5460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5545,7 +5469,7 @@
         <v>Hallau</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5571,73 +5495,58 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>425</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -5661,25 +5570,25 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Trasadingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5687,7 +5596,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5695,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5703,7 +5612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5712,7 +5621,7 @@
         <v>Trasadingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5738,18 +5647,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>407</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
         <v>416</v>
       </c>
@@ -5757,18 +5664,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>408</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>409</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>417</v>
       </c>
@@ -5776,18 +5681,16 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>418</v>
       </c>
@@ -5795,18 +5698,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
         <v>419</v>
       </c>
@@ -5814,18 +5715,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>420</v>
       </c>
@@ -5857,25 +5756,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Beringen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5883,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5891,7 +5790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5899,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5908,7 +5807,7 @@
         <v>Beringen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5934,7 +5833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5954,7 +5853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5974,7 +5873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5994,7 +5893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -6011,7 +5910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6029,7 +5928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6046,7 +5945,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6063,7 +5962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -6083,7 +5982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6103,7 +6002,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -6120,7 +6019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6137,7 +6036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -6157,7 +6056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -6193,25 +6092,25 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Wilchingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6219,7 +6118,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6227,7 +6126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6235,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6244,7 +6143,7 @@
         <v>Wilchingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6270,59 +6169,47 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
@@ -6346,25 +6233,25 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Rüdlingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6372,7 +6259,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6380,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6397,7 +6284,7 @@
         <v>Rüdlingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6423,88 +6310,73 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
       <c r="E8">
         <v>2001</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>394</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
       <c r="E9">
         <v>2021</v>
       </c>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
       <c r="E10">
         <v>2021</v>
       </c>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
       <c r="E11">
         <v>2021</v>
       </c>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
       <c r="E12">
         <v>2021</v>
       </c>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -6528,25 +6400,25 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Buchberg</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6554,7 +6426,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6562,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6570,7 +6442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6579,7 +6451,7 @@
         <v>Buchberg</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6605,73 +6477,58 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>385</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -6695,25 +6552,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Schleitheim</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6721,7 +6578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6729,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6737,7 +6594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6746,7 +6603,7 @@
         <v>Schleitheim</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6772,7 +6629,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6786,7 +6643,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -6800,7 +6657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6814,7 +6671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -6828,7 +6685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -6862,25 +6719,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Beggingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6888,7 +6745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6896,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6904,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6913,7 +6770,7 @@
         <v>Beggingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6939,7 +6796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6956,7 +6813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -6973,7 +6830,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -6990,7 +6847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -7007,7 +6864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -7048,25 +6905,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Grosserstadtrat Schaffhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7074,7 +6931,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7082,7 +6939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7090,7 +6947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -7099,7 +6956,7 @@
         <v>Schaffhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7125,7 +6982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -7148,7 +7005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7171,7 +7028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -7194,7 +7051,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7217,7 +7074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -7240,7 +7097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -7263,7 +7120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -7286,7 +7143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7309,7 +7166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -7332,7 +7189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -7355,7 +7212,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -7378,7 +7235,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -7401,7 +7258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -7424,7 +7281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -7447,7 +7304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -7470,7 +7327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -7493,7 +7350,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -7516,7 +7373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -7539,7 +7396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -7562,7 +7419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -7585,7 +7442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -7608,7 +7465,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -7631,7 +7488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -7654,7 +7511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -7677,7 +7534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -7700,7 +7557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -7723,7 +7580,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -7746,7 +7603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -7769,7 +7626,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -7792,7 +7649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>220</v>
       </c>
@@ -7815,7 +7672,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -7838,7 +7695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -7861,7 +7718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -7884,7 +7741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -7907,7 +7764,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -7930,7 +7787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -8008,25 +7865,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Stadtrat Schaffhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8034,7 +7891,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8042,7 +7899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8050,7 +7907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8059,7 +7916,7 @@
         <v>Schaffhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8085,7 +7942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -8102,7 +7959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -8119,7 +7976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -8136,7 +7993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -8153,7 +8010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -8194,25 +8051,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Neuhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8220,7 +8077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8228,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8236,7 +8093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8245,7 +8102,7 @@
         <v>Neuhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8271,7 +8128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -8288,7 +8145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8305,7 +8162,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -8322,7 +8179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -8339,7 +8196,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -8380,25 +8237,25 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Einwohnerrat Neuhausen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8414,7 +8271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8431,7 +8288,7 @@
         <v>Neuhausen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8457,7 +8314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -8474,7 +8331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>267</v>
       </c>
@@ -8491,7 +8348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8508,7 +8365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -8525,7 +8382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -8542,7 +8399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -8559,7 +8416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>279</v>
       </c>
@@ -8576,7 +8433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -8593,7 +8450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -8610,7 +8467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -8627,7 +8484,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -8644,7 +8501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -8658,7 +8515,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -8675,7 +8532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -8692,7 +8549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -8709,7 +8566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -8723,7 +8580,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -8740,7 +8597,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -8757,7 +8614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -8774,7 +8631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>311</v>
       </c>
